--- a/uploads/input_BTTH4.xlsx
+++ b/uploads/input_BTTH4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTDL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTDL\BTTH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA9D216-8358-4BE1-B9C5-7F300932EB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4635CC-F2D2-4F70-82F2-6AE62D6B7F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{8E78DB19-C39B-47BD-9631-ECFAEDEF7741}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">input!$A$1:$F$15</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">input!$A$1:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>Cold</t>
   </si>
 </sst>
 </file>
@@ -189,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FB48A65-FD8F-44D2-A990-D0476F731BF5}" name="TongHop_Semina_DoAnCacNhom" displayName="TongHop_Semina_DoAnCacNhom" ref="A1:F15" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{1FB48A65-FD8F-44D2-A990-D0476F731BF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FB48A65-FD8F-44D2-A990-D0476F731BF5}" name="TongHop_Semina_DoAnCacNhom" displayName="TongHop_Semina_DoAnCacNhom" ref="A1:F16" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F16" xr:uid="{1FB48A65-FD8F-44D2-A990-D0476F731BF5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{642DFD7F-1D24-41E9-BFD1-E70016AD315C}" uniqueName="1" name="Day" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{B4AB76A4-BB85-4456-B8A1-9A93C7BA547D}" uniqueName="2" name="Outlook" queryTableFieldId="2" dataDxfId="4"/>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747B8C5B-1F28-42E4-86E4-C269AB077119}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,19 +566,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -580,19 +586,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -600,19 +606,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -620,19 +626,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -640,19 +646,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -660,19 +666,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -680,19 +686,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -700,19 +706,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -720,19 +726,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -740,19 +746,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -760,19 +766,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -780,19 +786,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -800,19 +806,19 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -820,20 +826,40 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/input_BTTH4.xlsx
+++ b/uploads/input_BTTH4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTDL\BTTH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4635CC-F2D2-4F70-82F2-6AE62D6B7F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76880C-98AA-4676-B431-8EBCE0BF9BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{8E78DB19-C39B-47BD-9631-ECFAEDEF7741}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>Rainy</t>
-  </si>
-  <si>
-    <t>Cold</t>
   </si>
 </sst>
 </file>
@@ -123,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +145,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,24 +843,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/input_BTTH4.xlsx
+++ b/uploads/input_BTTH4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KTDL\BTTH4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76880C-98AA-4676-B431-8EBCE0BF9BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4635CC-F2D2-4F70-82F2-6AE62D6B7F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10800" xr2:uid="{8E78DB19-C39B-47BD-9631-ECFAEDEF7741}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>Rainy</t>
+  </si>
+  <si>
+    <t>Cold</t>
   </si>
 </sst>
 </file>
@@ -117,18 +123,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +145,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,12 +843,24 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
